--- a/labeldel/labeldel.xlsx
+++ b/labeldel/labeldel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\labeldel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0B8382-DAC5-4B83-AC59-804046E28110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8BAB7-BE80-462D-99F8-C91BD26271BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9750" yWindow="2505" windowWidth="11385" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,235 +341,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>269</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>357</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>385</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>401</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>454</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>908</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>474</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>463</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>458</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>659</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>659</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>692</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>692</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>703</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>703</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>647</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>625</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>950</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1098</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1115</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1068</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>583</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>594</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>591</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>578</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>562</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>365</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>373</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>377</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>575</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>559</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>554</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>570</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>730</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>755</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43">
+        <v>649</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44">
+        <v>681</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45">
+        <v>650</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>655</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
